--- a/SAM_A.xlsx
+++ b/SAM_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F56540-8F4A-41C9-A530-9B8F1CC4FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F44E6B-08A5-4258-869A-33890C84E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="107">
   <si>
     <t>Aeropuerto</t>
   </si>
@@ -320,9 +314,6 @@
     <t>Ciudad Victoria</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
     <t>Creel/Barrancas del cobre</t>
   </si>
   <si>
@@ -360,6 +351,12 @@
   </si>
   <si>
     <t>Fuente: AFAC. Agencia Federal de Aviación Civil.</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -803,7 +800,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -811,909 +808,907 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D86" s="3" t="s">
-        <v>0</v>
+      <c r="B86" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D87" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D87" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/SAM_A.xlsx
+++ b/SAM_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F44E6B-08A5-4258-869A-33890C84E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307D8F6-7BB8-49F8-9D75-7733FD002501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t>Celaya</t>
   </si>
   <si>
-    <t>Chichen Itza</t>
-  </si>
-  <si>
     <t>Ciudad Juárez</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Actualización: mayo 2024.</t>
+  </si>
+  <si>
+    <t>Chichen Itzá</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>13</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>17</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>19</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>20</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="28" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>24</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>25</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>16</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>16</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>27</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>22</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>32</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>4</v>
@@ -1699,12 +1699,12 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">

--- a/SAM_A.xlsx
+++ b/SAM_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307D8F6-7BB8-49F8-9D75-7733FD002501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EDCD2-0318-4D20-AC37-6917F50D2E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_2" sheetId="1" r:id="rId1"/>
@@ -353,10 +353,10 @@
     <t>Córdoba</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Chichen Itzá</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -370,40 +370,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -564,7 +564,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,28 +572,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -602,14 +602,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -786,27 +786,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>84</v>
       </c>
@@ -828,7 +828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -839,7 +839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>85</v>
       </c>
@@ -850,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>86</v>
       </c>
@@ -861,7 +861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
@@ -872,7 +872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -883,7 +883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
@@ -894,7 +894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>87</v>
       </c>
@@ -905,7 +905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>88</v>
       </c>
@@ -916,7 +916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
@@ -927,9 +927,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>13</v>
@@ -938,7 +938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -949,7 +949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
@@ -971,7 +971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>89</v>
       </c>
@@ -982,7 +982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
@@ -993,7 +993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>90</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>104</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>91</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>94</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>96</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>97</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>98</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>49</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>51</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>52</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>53</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>55</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>56</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>57</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>99</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>59</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>60</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>61</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>63</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>65</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>29</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>66</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>68</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>69</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>70</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>71</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>72</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>31</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>100</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>73</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>74</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>75</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>76</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>77</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>78</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>79</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>80</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>101</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>81</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>82</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>35</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>83</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>102</v>
       </c>
@@ -1697,17 +1697,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D87" s="3"/>
     </row>
   </sheetData>

--- a/SAM_A.xlsx
+++ b/SAM_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EDCD2-0318-4D20-AC37-6917F50D2E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA2FCF-108D-46F8-8B3B-8692C12D2AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -375,19 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -401,11 +388,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -503,45 +505,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,928 +793,929 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="D18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="D20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="D24" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="D26" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="D27" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="D28" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="D30" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="D31" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+      <c r="D32" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="D33" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="D34" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="D36" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="D39" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="D41" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="D42" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="D43" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+      <c r="D44" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="D45" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+      <c r="D46" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B47" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="D47" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+      <c r="D48" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="D49" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+      <c r="D50" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B51" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="D51" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
+      <c r="D52" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+      <c r="D53" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="D54" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
+      <c r="D55" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="D56" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B59" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+      <c r="D59" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+      <c r="D60" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B61" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+      <c r="D61" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
+      <c r="D62" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
+      <c r="D63" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B64" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
+      <c r="D64" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
+      <c r="D65" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+      <c r="D66" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
+      <c r="D67" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B68" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
+      <c r="D68" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B69" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
+      <c r="D69" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B70" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
+      <c r="D70" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B71" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B72" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
+      <c r="D72" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B73" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
+      <c r="D74" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B75" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="5" t="s">
+      <c r="D75" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B76" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="D76" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B77" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
+      <c r="D77" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B78" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+      <c r="D78" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B79" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
+      <c r="D79" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B80" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
+      <c r="D80" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B81" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
+      <c r="D81" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B82" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
+      <c r="D82" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B83" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B84" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B85" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B86" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="3"/>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D87" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SAM_A.xlsx
+++ b/SAM_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA2FCF-108D-46F8-8B3B-8692C12D2AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A3B71-FD03-41B7-BE9A-AA60F9F98A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="108">
   <si>
     <t>Aeropuerto</t>
   </si>
@@ -356,7 +356,10 @@
     <t>Chichen Itzá</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2025.</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,7 +796,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
@@ -802,15 +805,15 @@
     <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="18">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -821,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
         <v>84</v>
       </c>
@@ -832,7 +835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -843,7 +846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
@@ -854,7 +857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4">
       <c r="B8" s="9" t="s">
         <v>86</v>
       </c>
@@ -865,7 +868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
@@ -876,7 +879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -887,7 +890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -898,7 +901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="B12" s="9" t="s">
         <v>87</v>
       </c>
@@ -909,7 +912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
@@ -920,7 +923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4">
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
@@ -931,7 +934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
         <v>105</v>
       </c>
@@ -942,7 +945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4">
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
@@ -953,7 +956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
@@ -964,7 +967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4">
       <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
@@ -975,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
@@ -986,7 +989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4">
       <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4">
       <c r="B21" s="6" t="s">
         <v>90</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4">
       <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4">
       <c r="B23" s="6" t="s">
         <v>104</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4">
       <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4">
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4">
       <c r="B26" s="9" t="s">
         <v>92</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" ht="18" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>45</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" ht="18" customHeight="1">
       <c r="B28" s="9" t="s">
         <v>93</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4">
       <c r="B30" s="9" t="s">
         <v>94</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
         <v>95</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4">
       <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4">
       <c r="B33" s="6" t="s">
         <v>96</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4">
       <c r="B34" s="9" t="s">
         <v>97</v>
       </c>
@@ -1151,9 +1154,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4">
       <c r="B35" s="6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>26</v>
@@ -1162,7 +1165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4">
       <c r="B36" s="9" t="s">
         <v>98</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4">
       <c r="B37" s="6" t="s">
         <v>46</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4">
       <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4">
       <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4">
       <c r="B40" s="9" t="s">
         <v>49</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4">
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4">
       <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4">
       <c r="B43" s="6" t="s">
         <v>52</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4">
       <c r="B44" s="9" t="s">
         <v>53</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4">
       <c r="B45" s="6" t="s">
         <v>54</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4">
       <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4">
       <c r="B47" s="6" t="s">
         <v>56</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4">
       <c r="B48" s="9" t="s">
         <v>57</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4">
       <c r="B49" s="6" t="s">
         <v>58</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4">
       <c r="B50" s="9" t="s">
         <v>99</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4">
       <c r="B51" s="6" t="s">
         <v>59</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4">
       <c r="B52" s="9" t="s">
         <v>60</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4">
       <c r="B53" s="6" t="s">
         <v>61</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4">
       <c r="B54" s="9" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4">
       <c r="B55" s="6" t="s">
         <v>62</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4">
       <c r="B56" s="9" t="s">
         <v>63</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4">
       <c r="B57" s="6" t="s">
         <v>64</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4">
       <c r="B58" s="9" t="s">
         <v>65</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4">
       <c r="B59" s="6" t="s">
         <v>29</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4">
       <c r="B60" s="9" t="s">
         <v>66</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4">
       <c r="B61" s="6" t="s">
         <v>67</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4">
       <c r="B62" s="9" t="s">
         <v>68</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4">
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4">
       <c r="B64" s="9" t="s">
         <v>69</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:4">
       <c r="B65" s="6" t="s">
         <v>70</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:4">
       <c r="B66" s="9" t="s">
         <v>71</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:4">
       <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:4">
       <c r="B68" s="9" t="s">
         <v>31</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:4">
       <c r="B69" s="6" t="s">
         <v>100</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:4">
       <c r="B70" s="9" t="s">
         <v>73</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:4">
       <c r="B71" s="6" t="s">
         <v>74</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:4">
       <c r="B72" s="9" t="s">
         <v>75</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:4">
       <c r="B73" s="6" t="s">
         <v>76</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4">
       <c r="B74" s="9" t="s">
         <v>77</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:4">
       <c r="B75" s="6" t="s">
         <v>78</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:4">
       <c r="B76" s="9" t="s">
         <v>79</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:4">
       <c r="B77" s="6" t="s">
         <v>80</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:4">
       <c r="B78" s="9" t="s">
         <v>101</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:4">
       <c r="B79" s="6" t="s">
         <v>81</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:4">
       <c r="B80" s="9" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4">
       <c r="B81" s="6" t="s">
         <v>82</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4">
       <c r="B82" s="9" t="s">
         <v>35</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:4">
       <c r="B83" s="6" t="s">
         <v>83</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:4">
       <c r="B84" s="12" t="s">
         <v>102</v>
       </c>
@@ -1701,17 +1704,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:4">
       <c r="D87" s="15"/>
     </row>
   </sheetData>
